--- a/t/Personnel.xlsx
+++ b/t/Personnel.xlsx
@@ -28,9 +28,6 @@
     <t>EM</t>
   </si>
   <si>
-    <t>Dienstverlening</t>
-  </si>
-  <si>
     <t>Onderzoek</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>Danny.Bhoy@ua.ac.be</t>
+  </si>
+  <si>
+    <t>Dienst-verlening</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -621,7 +621,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -629,7 +629,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -637,7 +637,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -655,50 +655,50 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="F7" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" ref="C9:C16" si="0">CONCATENATE(A9," ",B9)</f>
         <v>GI Joe</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
@@ -715,17 +715,17 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Dumbhead Dirk</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -742,17 +742,17 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Sporgese Ellen</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -769,17 +769,17 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Ketten Dick</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -796,17 +796,17 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MacAllen Bob</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>1</v>
@@ -823,17 +823,17 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Frog Frank</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
@@ -850,17 +850,17 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Bindozer Walter</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
@@ -877,17 +877,17 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Bhoy Danny</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>

--- a/t/Personnel.xlsx
+++ b/t/Personnel.xlsx
@@ -4,146 +4,221 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="465" windowWidth="14055" windowHeight="9465"/>
+    <workbookView xWindow="14625" yWindow="45" windowWidth="14055" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Personeelsoverzicht" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Personeelsoverzicht!$A$8:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Personeelsoverzicht!$A$9:$Y$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Personeelsoverzicht!$A$1:$Y$17</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
-  <si>
-    <t>EI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>BK</t>
   </si>
   <si>
-    <t>EM</t>
+    <t>Percentages</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Lucien.Allonsius@artesis.be</t>
+  </si>
+  <si>
+    <t>Joke.Anthonissen@artesis.be</t>
+  </si>
+  <si>
+    <t>Amaryllis.Audenaert@artesis.be</t>
+  </si>
+  <si>
+    <t>Marijke.Brondeel@artesis.be</t>
+  </si>
+  <si>
+    <t>Matthias.Buyle@artesis.be</t>
+  </si>
+  <si>
+    <t>Bart.Craeye@artesis.be</t>
+  </si>
+  <si>
+    <t>Bob.Janssens@artesis.be</t>
+  </si>
+  <si>
+    <t>edlira.Kondo@artesis.be</t>
+  </si>
+  <si>
+    <t>Groepen</t>
+  </si>
+  <si>
+    <t>Raden en Commissies</t>
+  </si>
+  <si>
+    <t>Structurele
+Taken</t>
+  </si>
+  <si>
+    <t>Project
+Taken</t>
+  </si>
+  <si>
+    <t>Dienstverleningsopdracht</t>
+  </si>
+  <si>
+    <t>Persoonsinformatie</t>
+  </si>
+  <si>
+    <t>Opdrachtsoverzicht</t>
+  </si>
+  <si>
+    <t>Opmerkingen:</t>
+  </si>
+  <si>
+    <t>- Kolommen met cursieve kolomtitel worden automatisch gegenereerd</t>
+  </si>
+  <si>
+    <t>- Dit is een brondocument, dit wordt enkel met de hand geëditeerd</t>
+  </si>
+  <si>
+    <t>- Wijzig de kolomtitels niet! De administratiesoftware herkent enkel ongewijzigde kolomtitels; wil je kolommen toevoegen? Licht dan ook de beheerder van de FacAdmin suite in.</t>
+  </si>
+  <si>
+    <t>Achternaam</t>
+  </si>
+  <si>
+    <t>Voornaam</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Opleiding</t>
+  </si>
+  <si>
+    <t>Opdracht</t>
   </si>
   <si>
     <t>Onderzoek</t>
   </si>
   <si>
-    <t>Opdracht</t>
-  </si>
-  <si>
-    <t>Opleiding</t>
-  </si>
-  <si>
-    <t>Naam</t>
-  </si>
-  <si>
-    <t>Percentages</t>
-  </si>
-  <si>
-    <t>In een tweede fase zal het percentage dienstverlening bepaald worden op basis van een lijst met taken.</t>
-  </si>
-  <si>
-    <t>Graag correcties aanbrengen en op markeren!</t>
-  </si>
-  <si>
-    <t>Opmerking: deze lijst is helemaal niet up-to-date wat opdrachts-, onderzoeks en dienstverleningspercentages betreft.</t>
-  </si>
-  <si>
-    <t>Personeel</t>
-  </si>
-  <si>
-    <t>Voornaam</t>
-  </si>
-  <si>
-    <t>Achternaam</t>
+    <t>Dienst-verlening</t>
+  </si>
+  <si>
+    <t>FTI - Personeel Bouwkunde</t>
+  </si>
+  <si>
+    <t>DV-Bureau van de Faculteit en Faculteitsraad als lid</t>
+  </si>
+  <si>
+    <t>DV-Faculteitsraad als lid (en geen lid van BvF)</t>
+  </si>
+  <si>
+    <t>DV-Onderwijscommissie als voorzitter</t>
+  </si>
+  <si>
+    <t>DV-Onderwijscommissie als ondervoorzitter</t>
+  </si>
+  <si>
+    <t>DV-Onderwijscommissie als kwalteitsanker</t>
+  </si>
+  <si>
+    <t>DV-Onderwijscommissie als internationaliseringsanker</t>
+  </si>
+  <si>
+    <t>DV-Onderwijscommissie als gewoon lid</t>
+  </si>
+  <si>
+    <t>DV-Onderzoekscommissie als voorzitter</t>
+  </si>
+  <si>
+    <t>DV-Onderzoekscommissie als ondervoorzitter</t>
+  </si>
+  <si>
+    <t>DV-Onderzoekscommissie als gewoon lid</t>
+  </si>
+  <si>
+    <t>DV-Vakgroepvoorzitter</t>
+  </si>
+  <si>
+    <t>DV-Onderzoeksgroepvoorzitter</t>
+  </si>
+  <si>
+    <t>DV-GX</t>
+  </si>
+  <si>
+    <t>DV-Studietrajectbegeleider / ECTS / GST</t>
+  </si>
+  <si>
+    <t>DV-SX</t>
+  </si>
+  <si>
+    <t>DV-Gebruikerscommissie gebouw Z</t>
+  </si>
+  <si>
+    <t>DV-PX</t>
+  </si>
+  <si>
+    <t>Bhoy</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Bindozer</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Dumbhead</t>
   </si>
   <si>
     <t>Dirk</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Walter</t>
+    <t>Frog</t>
   </si>
   <si>
     <t>Frank</t>
   </si>
   <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Danny</t>
+    <t>GI</t>
   </si>
   <si>
     <t>Joe</t>
   </si>
   <si>
+    <t>Ketten</t>
+  </si>
+  <si>
+    <t>Dick</t>
+  </si>
+  <si>
+    <t>MacAllen</t>
+  </si>
+  <si>
+    <t>Sporgese</t>
+  </si>
+  <si>
     <t>Ellen</t>
-  </si>
-  <si>
-    <t>Dick</t>
-  </si>
-  <si>
-    <t>Bhoy</t>
-  </si>
-  <si>
-    <t>GI</t>
-  </si>
-  <si>
-    <t>Dumbhead</t>
-  </si>
-  <si>
-    <t>Sporgese</t>
-  </si>
-  <si>
-    <t>Ketten</t>
-  </si>
-  <si>
-    <t>MacAllen</t>
-  </si>
-  <si>
-    <t>Frog</t>
-  </si>
-  <si>
-    <t>Bindozer</t>
-  </si>
-  <si>
-    <t>Joe.GI@ua.ac.be</t>
-  </si>
-  <si>
-    <t>Dirk.Dumbhead@ua.ac.be</t>
-  </si>
-  <si>
-    <t>Ellen.Sporgese@ua.ac.be</t>
-  </si>
-  <si>
-    <t>Dick.Ketten@ua.ac.be</t>
-  </si>
-  <si>
-    <t>Bob.MacAllen@ua.ac.be</t>
-  </si>
-  <si>
-    <t>Frank.Frog@ua.ac.be</t>
-  </si>
-  <si>
-    <t>Walter.Bindozer@ua.ac.be</t>
-  </si>
-  <si>
-    <t>Danny.Bhoy@ua.ac.be</t>
-  </si>
-  <si>
-    <t>Dienst-verlening</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,20 +254,34 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -256,23 +345,77 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,9 +425,23 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+  <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="2"/>
@@ -586,345 +743,725 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane xSplit="5" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="8" customWidth="1"/>
+    <col min="11" max="15" width="5.7109375" style="7" customWidth="1"/>
+    <col min="16" max="18" width="5.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" style="8" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" style="7" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="7" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" style="8" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+    </row>
+    <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="19"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="I7" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="K7" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L7" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M7" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N7" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O7" s="11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P7" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R7" s="11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="Y7" s="10"/>
+    </row>
+    <row r="8" spans="1:25" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="T8" s="37"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="W8" s="40"/>
+      <c r="X8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="40"/>
+    </row>
+    <row r="9" spans="1:25" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="13" t="str">
+        <f>CONCATENATE(A10," ",B10)</f>
+        <v>Bhoy Danny</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f>SUMPRODUCT(I10:Y10,$I$7:$Y$7)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="13" t="str">
+        <f t="shared" ref="C11:C17" si="0">CONCATENATE(A11," ",B11)</f>
+        <v>Bindozer Walter</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f t="shared" ref="C9:C16" si="0">CONCATENATE(A9," ",B9)</f>
-        <v>GI Joe</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="str">
+      <c r="E11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" ref="H11:H17" si="1">SUMPRODUCT(I11:Y11,$I$7:$Y$7)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>1</v>
+      </c>
+      <c r="U11" s="7">
+        <v>1</v>
+      </c>
+      <c r="V11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Dumbhead Dirk</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1</v>
+      </c>
+      <c r="S12" s="7">
+        <v>1</v>
+      </c>
+      <c r="V12" s="8">
+        <v>1</v>
+      </c>
+      <c r="W12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Frog Frank</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.155</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>1</v>
+      </c>
+      <c r="R13" s="8">
+        <v>1</v>
+      </c>
+      <c r="X13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>GI Joe</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Ketten Dick</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="8">
+        <v>1</v>
+      </c>
+      <c r="S15" s="7">
+        <v>1</v>
+      </c>
+      <c r="V15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="str">
+      <c r="C16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>MacAllen Bob</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.115</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="U16" s="7">
+        <v>1</v>
+      </c>
+      <c r="W16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Sporgese Ellen</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ketten Dick</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MacAllen Bob</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Frog Frank</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Bindozer Walter</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Bhoy Danny</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.2</v>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
+      <c r="T17" s="8">
+        <v>1</v>
+      </c>
+      <c r="X17" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H16">
-    <sortState ref="A9:E124">
-      <sortCondition ref="A8:A123"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A9:Y17"/>
   <sortState ref="A10:K123">
     <sortCondition ref="E10:E123"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="F7:H7"/>
+  <mergeCells count="5">
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-    <hyperlink ref="D10" r:id="rId2"/>
-    <hyperlink ref="D11" r:id="rId3"/>
-    <hyperlink ref="D12" r:id="rId4"/>
-    <hyperlink ref="D13" r:id="rId5"/>
-    <hyperlink ref="D14" r:id="rId6"/>
-    <hyperlink ref="D15" r:id="rId7"/>
-    <hyperlink ref="D16" r:id="rId8"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>